--- a/questions/optimum_by_profit.xlsx.xlsx
+++ b/questions/optimum_by_profit.xlsx.xlsx
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>32.37035465141162</v>
+        <v>25.92630350847742</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>30.3793544380658</v>
+        <v>28.61118753589891</v>
       </c>
     </row>
     <row r="4">
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>23.86477112545441</v>
+        <v>16.46588235294118</v>
       </c>
     </row>
     <row r="5">
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>31.03023788105947</v>
+        <v>31.04830059387848</v>
       </c>
     </row>
   </sheetData>
